--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Shank1-Sstr2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01074866666666667</v>
+        <v>0.005464</v>
       </c>
       <c r="H2">
-        <v>0.032246</v>
+        <v>0.016392</v>
       </c>
       <c r="I2">
-        <v>0.005097839275621796</v>
+        <v>0.002556359763658365</v>
       </c>
       <c r="J2">
-        <v>0.005097839275621795</v>
+        <v>0.002556359763658364</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3188423333333334</v>
+        <v>0.097952</v>
       </c>
       <c r="N2">
-        <v>0.9565270000000001</v>
+        <v>0.293856</v>
       </c>
       <c r="O2">
-        <v>0.7196136389454593</v>
+        <v>0.3056806443660103</v>
       </c>
       <c r="P2">
-        <v>0.719613638945459</v>
+        <v>0.3056806443660104</v>
       </c>
       <c r="Q2">
-        <v>0.003427129960222222</v>
+        <v>0.0005352097280000001</v>
       </c>
       <c r="R2">
-        <v>0.030844169642</v>
+        <v>0.004816887552</v>
       </c>
       <c r="S2">
-        <v>0.003668474671889285</v>
+        <v>0.0007814296997864308</v>
       </c>
       <c r="T2">
-        <v>0.003668474671889283</v>
+        <v>0.0007814296997864308</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01074866666666667</v>
+        <v>0.005464</v>
       </c>
       <c r="H3">
-        <v>0.032246</v>
+        <v>0.016392</v>
       </c>
       <c r="I3">
-        <v>0.005097839275621796</v>
+        <v>0.002556359763658365</v>
       </c>
       <c r="J3">
-        <v>0.005097839275621795</v>
+        <v>0.002556359763658364</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.350964</v>
       </c>
       <c r="O3">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="P3">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="Q3">
-        <v>0.001257465016</v>
+        <v>0.000639222432</v>
       </c>
       <c r="R3">
-        <v>0.011317185144</v>
+        <v>0.005753001888</v>
       </c>
       <c r="S3">
-        <v>0.001346017984588988</v>
+        <v>0.0009332928140172224</v>
       </c>
       <c r="T3">
-        <v>0.001346017984588987</v>
+        <v>0.0009332928140172223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,46 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01074866666666667</v>
+        <v>0.005464</v>
       </c>
       <c r="H4">
-        <v>0.032246</v>
+        <v>0.016392</v>
       </c>
       <c r="I4">
-        <v>0.005097839275621796</v>
+        <v>0.002556359763658365</v>
       </c>
       <c r="J4">
-        <v>0.005097839275621795</v>
+        <v>0.002556359763658364</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.007244</v>
+        <v>0.105499</v>
       </c>
       <c r="N4">
-        <v>0.021732</v>
+        <v>0.316497</v>
       </c>
       <c r="O4">
-        <v>0.01634940111629125</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="P4">
-        <v>0.01634940111629124</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="Q4">
-        <v>7.786334133333331E-05</v>
+        <v>0.000576446536</v>
       </c>
       <c r="R4">
-        <v>0.0007007700719999999</v>
+        <v>0.005188018824</v>
       </c>
       <c r="S4">
-        <v>8.334661914352436E-05</v>
+        <v>0.0008416372498547113</v>
       </c>
       <c r="T4">
-        <v>8.334661914352432E-05</v>
+        <v>0.0008416372498547113</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>5.387822</v>
       </c>
       <c r="I5">
-        <v>0.8517723315034168</v>
+        <v>0.8402398349532294</v>
       </c>
       <c r="J5">
-        <v>0.8517723315034167</v>
+        <v>0.8402398349532293</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3188423333333334</v>
+        <v>0.097952</v>
       </c>
       <c r="N5">
-        <v>0.9565270000000001</v>
+        <v>0.293856</v>
       </c>
       <c r="O5">
-        <v>0.7196136389454593</v>
+        <v>0.3056806443660103</v>
       </c>
       <c r="P5">
-        <v>0.719613638945459</v>
+        <v>0.3056806443660104</v>
       </c>
       <c r="Q5">
-        <v>0.5726219126882223</v>
+        <v>0.1759159801813333</v>
       </c>
       <c r="R5">
-        <v>5.153597214194001</v>
+        <v>1.583243821632</v>
       </c>
       <c r="S5">
-        <v>0.6129469870262318</v>
+        <v>0.2568450541704934</v>
       </c>
       <c r="T5">
-        <v>0.6129469870262315</v>
+        <v>0.2568450541704934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.387822</v>
       </c>
       <c r="I6">
-        <v>0.8517723315034168</v>
+        <v>0.8402398349532294</v>
       </c>
       <c r="J6">
-        <v>0.8517723315034167</v>
+        <v>0.8402398349532293</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.350964</v>
       </c>
       <c r="O6">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="P6">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="Q6">
         <v>0.210103506712</v>
@@ -818,10 +818,10 @@
         <v>1.890931560408</v>
       </c>
       <c r="S6">
-        <v>0.2248993769696771</v>
+        <v>0.3067603438142935</v>
       </c>
       <c r="T6">
-        <v>0.2248993769696771</v>
+        <v>0.3067603438142935</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,40 +850,40 @@
         <v>5.387822</v>
       </c>
       <c r="I7">
-        <v>0.8517723315034168</v>
+        <v>0.8402398349532294</v>
       </c>
       <c r="J7">
-        <v>0.8517723315034167</v>
+        <v>0.8402398349532293</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.007244</v>
+        <v>0.105499</v>
       </c>
       <c r="N7">
-        <v>0.021732</v>
+        <v>0.316497</v>
       </c>
       <c r="O7">
-        <v>0.01634940111629125</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="P7">
-        <v>0.01634940111629124</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="Q7">
-        <v>0.01300979418933333</v>
+        <v>0.1894699443926667</v>
       </c>
       <c r="R7">
-        <v>0.117088147704</v>
+        <v>1.705229499534</v>
       </c>
       <c r="S7">
-        <v>0.01392596750750796</v>
+        <v>0.2766344369684425</v>
       </c>
       <c r="T7">
-        <v>0.01392596750750796</v>
+        <v>0.2766344369684425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3017856666666667</v>
+        <v>0.3360096666666667</v>
       </c>
       <c r="H8">
-        <v>0.9053570000000001</v>
+        <v>1.008029</v>
       </c>
       <c r="I8">
-        <v>0.1431298292209615</v>
+        <v>0.1572038052831124</v>
       </c>
       <c r="J8">
-        <v>0.1431298292209615</v>
+        <v>0.1572038052831123</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3188423333333334</v>
+        <v>0.097952</v>
       </c>
       <c r="N8">
-        <v>0.9565270000000001</v>
+        <v>0.293856</v>
       </c>
       <c r="O8">
-        <v>0.7196136389454593</v>
+        <v>0.3056806443660103</v>
       </c>
       <c r="P8">
-        <v>0.719613638945459</v>
+        <v>0.3056806443660104</v>
       </c>
       <c r="Q8">
-        <v>0.09622204612655558</v>
+        <v>0.03291281886933334</v>
       </c>
       <c r="R8">
-        <v>0.8659984151390002</v>
+        <v>0.296215369824</v>
       </c>
       <c r="S8">
-        <v>0.1029981772473382</v>
+        <v>0.04805416049573061</v>
       </c>
       <c r="T8">
-        <v>0.1029981772473382</v>
+        <v>0.04805416049573061</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3017856666666667</v>
+        <v>0.3360096666666667</v>
       </c>
       <c r="H9">
-        <v>0.9053570000000001</v>
+        <v>1.008029</v>
       </c>
       <c r="I9">
-        <v>0.1431298292209615</v>
+        <v>0.1572038052831124</v>
       </c>
       <c r="J9">
-        <v>0.1431298292209615</v>
+        <v>0.1572038052831123</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +992,22 @@
         <v>0.350964</v>
       </c>
       <c r="O9">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="P9">
-        <v>0.2640369599382496</v>
+        <v>0.3650866467564809</v>
       </c>
       <c r="Q9">
-        <v>0.035305301572</v>
+        <v>0.03930909888400001</v>
       </c>
       <c r="R9">
-        <v>0.317747714148</v>
+        <v>0.353781889956</v>
       </c>
       <c r="S9">
-        <v>0.03779156498398351</v>
+        <v>0.05739301012817025</v>
       </c>
       <c r="T9">
-        <v>0.03779156498398351</v>
+        <v>0.05739301012817025</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,46 +1030,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3017856666666667</v>
+        <v>0.3360096666666667</v>
       </c>
       <c r="H10">
-        <v>0.9053570000000001</v>
+        <v>1.008029</v>
       </c>
       <c r="I10">
-        <v>0.1431298292209615</v>
+        <v>0.1572038052831124</v>
       </c>
       <c r="J10">
-        <v>0.1431298292209615</v>
+        <v>0.1572038052831123</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.007244</v>
+        <v>0.105499</v>
       </c>
       <c r="N10">
-        <v>0.021732</v>
+        <v>0.316497</v>
       </c>
       <c r="O10">
-        <v>0.01634940111629125</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="P10">
-        <v>0.01634940111629124</v>
+        <v>0.3292327088775087</v>
       </c>
       <c r="Q10">
-        <v>0.002186135369333333</v>
+        <v>0.03544868382366667</v>
       </c>
       <c r="R10">
-        <v>0.019675218324</v>
+        <v>0.319038154413</v>
       </c>
       <c r="S10">
-        <v>0.002340086989639763</v>
+        <v>0.05175663465921149</v>
       </c>
       <c r="T10">
-        <v>0.002340086989639762</v>
+        <v>0.05175663465921149</v>
       </c>
     </row>
   </sheetData>
